--- a/data/trans_bre/P28A_2_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P28A_2_R-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-7,94</t>
+          <t>-6,3</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>5,02</t>
+          <t>11,93</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-4,32</t>
+          <t>-1,39</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>4,65</t>
+          <t>4,68</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-67,44%</t>
+          <t>-60,11%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>35,77%</t>
+          <t>179,93%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-68,4%</t>
+          <t>-37,76%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>54,06%</t>
+          <t>130,42%</t>
         </is>
       </c>
     </row>
@@ -668,22 +668,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-20,63; 2,1</t>
+          <t>-22,68; 4,12</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-12,19; 19,23</t>
+          <t>-2,67; 25,48</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-18,02; 2,07</t>
+          <t>-12,1; 4,75</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-7,65; 16,02</t>
+          <t>-5,49; 14,95</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -693,7 +693,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-52,51; 283,13</t>
+          <t>-42,96; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -703,7 +703,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-58,76; 488,34</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -720,32 +720,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>7,08</t>
+          <t>5,06</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-3,62</t>
+          <t>7,22</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>3,72</t>
+          <t>1,81</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-0,78</t>
+          <t>-3,27</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>62,3%</t>
+          <t>274,96%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-23,68%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-25,01%</t>
+          <t>-100,0%</t>
         </is>
       </c>
     </row>
@@ -768,32 +768,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-5,85; 21,04</t>
+          <t>-1,71; 13,95</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-15,67; 13,32</t>
+          <t>1,89; 16,64</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 12,65</t>
+          <t>0,0; 7,86</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-6,45; 6,96</t>
+          <t>-12,19; 0,0</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-40,42; 443,19</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-75,16; 210,05</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-12,68</t>
+          <t>-9,57</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-4,34</t>
+          <t>-12,63</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-3,8</t>
+          <t>-0,43</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,87</t>
+          <t>0,4</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-50,41%</t>
+          <t>-54,44%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-35,11%</t>
+          <t>-81,47%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-76,57%</t>
+          <t>-29,09%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>36,2%</t>
+          <t>21,36%</t>
         </is>
       </c>
     </row>
@@ -868,32 +868,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-24,1; -0,08</t>
+          <t>-21,24; 1,47</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-13,92; 5,09</t>
+          <t>-25,09; -4,64</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-11,72; 0,27</t>
+          <t>-5,24; 2,09</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-6,99; 6,76</t>
+          <t>-5,64; 4,6</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-74,61; 1,03</t>
+          <t>-80,76; 25,52</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-79,71; 76,97</t>
+          <t>-100,0; -32,14</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-4,07</t>
+          <t>-0,36</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-2,53</t>
+          <t>-4,3</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,3</t>
+          <t>-0,21</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-0,93</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-29,49%</t>
+          <t>-4,85%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-30,77%</t>
+          <t>-67,22%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>38,01%</t>
+          <t>-17,29%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -968,32 +968,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-12,8; 5,03</t>
+          <t>-8,34; 6,51</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-9,91; 4,55</t>
+          <t>-11,68; 0,82</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-1,59; 3,77</t>
+          <t>-4,89; 2,04</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-6,1; 0,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-69,49; 64,14</t>
+          <t>-75,91; 187,92</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-84,7; 122,23</t>
+          <t>-100,0; 178,54</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1020,12 +1020,12 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>1,68</t>
+          <t>-5,15</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-2,17</t>
+          <t>-3,96</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
@@ -1035,17 +1035,17 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-1,03</t>
+          <t>-1,47</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>20,76%</t>
+          <t>-73,59%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-36,98%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1068,12 +1068,12 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-7,97; 14,88</t>
+          <t>-13,05; 0,73</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-8,85; 9,34</t>
+          <t>-10,13; -1,18</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -1083,12 +1083,12 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-4,77; 0,0</t>
+          <t>-7,4; 0,0</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-76,13; 366,73</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
@@ -1120,27 +1120,27 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>3,42</t>
+          <t>-5,23</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-6,98</t>
+          <t>-4,67</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-1,8</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-2,06</t>
+          <t>-2,58</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>75,76%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
@@ -1150,7 +1150,7 @@
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -1168,22 +1168,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-6,91; 18,39</t>
+          <t>-17,62; 0,0</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-18,84; -2,23</t>
+          <t>-14,29; 0,0</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-9,02; 0,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-10,12; 0,0</t>
+          <t>-13,64; 0,0</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1220,42 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-2,64</t>
+          <t>-2,91</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-1,06</t>
+          <t>-1,5</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-0,97</t>
+          <t>0,06</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,78</t>
+          <t>-0,29</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-19,63%</t>
+          <t>-35,09%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-10,14%</t>
+          <t>-24,06%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-38,91%</t>
+          <t>5,59%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>23,69%</t>
+          <t>-14,05%</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,49 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-7,42; 1,96</t>
+          <t>-6,94; 0,59</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-5,71; 3,6</t>
+          <t>-4,82; 1,74</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-3,73; 1,07</t>
+          <t>-1,6; 1,62</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-2,37; 3,79</t>
+          <t>-2,68; 1,67</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-46,05; 19,68</t>
+          <t>-63,48; 13,26</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-45,36; 41,53</t>
+          <t>-60,57; 45,69</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-87,94; 107,31</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-55,81; 217,13</t>
+          <t>-84,9; 181,55</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P28A_2_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P28A_2_R-Edad-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -618,299 +627,173 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-6,3</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>11,93</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-1,39</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>4,68</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>-60,11%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>179,93%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>-37,76%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>130,42%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>-8.116720326982158</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>14.79043676632879</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>-4.490584303397002</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>7.824495653363109</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>-0.593324158394906</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>1.719824133637404</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>-0.5669801411244277</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>1.872677615096872</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-22,68; 4,12</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-2,67; 25,48</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-12,1; 4,75</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-5,49; 14,95</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-42,96; —</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-24.62697676514348</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-5.572681164239183</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-27.37968845280329</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-6.020934942670531</v>
+      </c>
+      <c r="G5" s="6" t="inlineStr"/>
+      <c r="H5" s="6" t="n">
+        <v>-0.570450386876352</v>
+      </c>
+      <c r="I5" s="6" t="inlineStr"/>
+      <c r="J5" s="6" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>6.398798673057965</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>32.34851504974575</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>6.817738937130489</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>23.15719692749947</v>
+      </c>
+      <c r="G6" s="6" t="inlineStr"/>
+      <c r="H6" s="6" t="inlineStr"/>
+      <c r="I6" s="6" t="inlineStr"/>
+      <c r="J6" s="6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>25-34</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>5,06</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>7,22</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>1,81</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>-3,27</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>274,96%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-1,71; 13,95</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>1,89; 16,64</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 7,86</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-12,19; 0,0</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>5.987250163639811</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>15.55171942538959</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>2.506002881462835</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>-5.442434381564501</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>1.371625709091271</v>
+      </c>
+      <c r="H7" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="I7" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>35-44</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-9,57</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-12,63</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-0,43</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>0,4</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>-54,44%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>-81,47%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>-29,09%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>21,36%</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-7.382149355115039</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>3.869176227926603</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-18.82622564451937</v>
+      </c>
+      <c r="G8" s="6" t="inlineStr"/>
+      <c r="H8" s="6" t="inlineStr"/>
+      <c r="I8" s="6" t="inlineStr"/>
+      <c r="J8" s="6" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-21,24; 1,47</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-25,09; -4,64</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-5,24; 2,09</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-5,64; 4,6</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-80,76; 25,52</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; -32,14</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>17.72264158080383</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>33.49096784936551</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>14.53098825212165</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" s="6" t="inlineStr"/>
+      <c r="H9" s="6" t="inlineStr"/>
+      <c r="I9" s="6" t="inlineStr"/>
+      <c r="J9" s="6" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45-54</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -918,299 +801,173 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>-0,36</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-4,3</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-0,21</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>-4,85%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>-67,22%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>-17,29%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>-11.59819920650188</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-15.14189367274851</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-0.001952906877617649</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>0.8445276880044088</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>-0.4712376222315039</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>-0.7484433568275182</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>-0.001208343493125495</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>0.219705773689121</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-8,34; 6,51</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-11,68; 0,82</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-4,89; 2,04</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-75,91; 187,92</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; 178,54</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-27.14328385739485</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-32.0318271401383</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-5.183861002170401</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-10.84682212152527</v>
+      </c>
+      <c r="G11" s="6" t="n">
+        <v>-0.7744977016909876</v>
+      </c>
+      <c r="H11" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I11" s="6" t="inlineStr"/>
+      <c r="J11" s="6" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>55-64</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>3.200042941342351</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>-3.505889101787343</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>3.404311071775028</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>9.360940357459832</v>
+      </c>
+      <c r="G12" s="6" t="n">
+        <v>0.2688848432589579</v>
+      </c>
+      <c r="H12" s="6" t="n">
+        <v>-0.01805745061187773</v>
+      </c>
+      <c r="I12" s="6" t="inlineStr"/>
+      <c r="J12" s="6" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>-5,15</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>-3,96</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>-1,47</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>-73,59%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-13,05; 0,73</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-10,13; -1,18</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-7,4; 0,0</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+      <c r="C13" s="5" t="n">
+        <v>4.102922807354703</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>-5.666914152921016</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>0.3863841623745012</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>0.4665753129506475</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>-0.5764439510496078</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>0.306936945016959</v>
+      </c>
+      <c r="J13" s="6" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>65 Y MAS</t>
-        </is>
-      </c>
+      <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>-5,23</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>-4,67</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>-2,58</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-6.763364199563389</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-18.45684991982381</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-2.534095665405963</v>
+      </c>
+      <c r="F14" s="5" t="inlineStr"/>
+      <c r="G14" s="6" t="n">
+        <v>-0.5508933014454186</v>
+      </c>
+      <c r="H14" s="6" t="inlineStr"/>
+      <c r="I14" s="6" t="inlineStr"/>
+      <c r="J14" s="6" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-17,62; 0,0</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-14,29; 0,0</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-13,64; 0,0</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>15.43320587703136</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>3.066705397083137</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>5.483522657588614</v>
+      </c>
+      <c r="F15" s="5" t="inlineStr"/>
+      <c r="G15" s="6" t="n">
+        <v>3.461851206143484</v>
+      </c>
+      <c r="H15" s="6" t="inlineStr"/>
+      <c r="I15" s="6" t="inlineStr"/>
+      <c r="J15" s="6" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1218,97 +975,253 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>-2,91</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>-1,5</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>0,06</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>-0,29</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>-35,09%</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>-24,06%</t>
-        </is>
-      </c>
-      <c r="I16" s="2" t="inlineStr">
-        <is>
-          <t>5,59%</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>-14,05%</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>-4.896548616714604</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>-5.402117494311433</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" s="5" t="n">
+        <v>-1.60148291685633</v>
+      </c>
+      <c r="G16" s="6" t="n">
+        <v>-0.5425749088248281</v>
+      </c>
+      <c r="H16" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I16" s="6" t="inlineStr"/>
+      <c r="J16" s="6" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>-6,94; 0,59</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>-4,82; 1,74</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>-1,6; 1,62</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>-2,68; 1,67</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>-63,48; 13,26</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>-60,57; 45,69</t>
-        </is>
-      </c>
-      <c r="I17" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>-84,9; 181,55</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>-15.323769737377</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>-14.13225613513498</v>
+      </c>
+      <c r="E17" s="5" t="inlineStr"/>
+      <c r="F17" s="5" t="n">
+        <v>-8.470273839292304</v>
+      </c>
+      <c r="G17" s="6" t="inlineStr"/>
+      <c r="H17" s="6" t="inlineStr"/>
+      <c r="I17" s="6" t="inlineStr"/>
+      <c r="J17" s="6" t="inlineStr"/>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>8.272097532630102</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>-1.504700810605324</v>
+      </c>
+      <c r="E18" s="5" t="inlineStr"/>
+      <c r="F18" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" s="6" t="inlineStr"/>
+      <c r="H18" s="6" t="inlineStr"/>
+      <c r="I18" s="6" t="inlineStr"/>
+      <c r="J18" s="6" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C19" s="5" t="n">
+        <v>-7.877539679427843</v>
+      </c>
+      <c r="D19" s="5" t="n">
+        <v>-7.582283450983468</v>
+      </c>
+      <c r="E19" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" s="5" t="n">
+        <v>-4.166867497791234</v>
+      </c>
+      <c r="G19" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H19" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I19" s="6" t="inlineStr"/>
+      <c r="J19" s="6" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="n">
+        <v>-24.35917608262308</v>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>-23.26193698603953</v>
+      </c>
+      <c r="E20" s="5" t="inlineStr"/>
+      <c r="F20" s="5" t="n">
+        <v>-18.24531885033024</v>
+      </c>
+      <c r="G20" s="6" t="inlineStr"/>
+      <c r="H20" s="6" t="inlineStr"/>
+      <c r="I20" s="6" t="inlineStr"/>
+      <c r="J20" s="6" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" s="5" t="inlineStr"/>
+      <c r="F21" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" s="6" t="inlineStr"/>
+      <c r="H21" s="6" t="inlineStr"/>
+      <c r="I21" s="6" t="inlineStr"/>
+      <c r="J21" s="6" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>-2.432322832394571</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.3185260838034235</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>-0.03318049855495775</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>0.6576873399571224</v>
+      </c>
+      <c r="G22" s="6" t="n">
+        <v>-0.2052389462116416</v>
+      </c>
+      <c r="H22" s="6" t="n">
+        <v>0.03395062129152605</v>
+      </c>
+      <c r="I22" s="6" t="n">
+        <v>-0.01830163442839906</v>
+      </c>
+      <c r="J22" s="6" t="n">
+        <v>0.219075083629429</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>-7.838946176879031</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>-5.318790933104835</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>-4.148966278442544</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>-2.897012642339682</v>
+      </c>
+      <c r="G23" s="6" t="n">
+        <v>-0.524803908546619</v>
+      </c>
+      <c r="H23" s="6" t="n">
+        <v>-0.4533970122988648</v>
+      </c>
+      <c r="I23" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J23" s="6" t="n">
+        <v>-0.7428225465109565</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>2.527595703052612</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>6.428794349460507</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>2.175574181681748</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>4.439053262007615</v>
+      </c>
+      <c r="G24" s="6" t="n">
+        <v>0.3034860440608404</v>
+      </c>
+      <c r="H24" s="6" t="n">
+        <v>1.011577553388508</v>
+      </c>
+      <c r="I24" s="6" t="n">
+        <v>4.360541572466687</v>
+      </c>
+      <c r="J24" s="6" t="n">
+        <v>4.316359993814404</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -1316,16 +1229,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
